--- a/dataset/2nd_data/preprocessing/growth_2nd.xlsx
+++ b/dataset/2nd_data/preprocessing/growth_2nd.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>주차</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -429,10 +429,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20180208</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -469,10 +467,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A3" t="n">
+        <v>20180208</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -509,10 +505,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A4" t="n">
+        <v>20180208</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -549,10 +543,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A5" t="n">
+        <v>20180208</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -589,10 +581,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A6" t="n">
+        <v>20180208</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -629,10 +619,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A7" t="n">
+        <v>20180208</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -669,10 +657,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A8" t="n">
+        <v>20180214</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -709,10 +695,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A9" t="n">
+        <v>20180214</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -749,10 +733,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A10" t="n">
+        <v>20180214</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
@@ -789,10 +771,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A11" t="n">
+        <v>20180214</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -829,10 +809,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A12" t="n">
+        <v>20180214</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
@@ -869,10 +847,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A13" t="n">
+        <v>20180214</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -909,10 +885,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A14" t="n">
+        <v>20180222</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -949,10 +923,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A15" t="n">
+        <v>20180222</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -989,10 +961,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A16" t="n">
+        <v>20180222</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -1029,10 +999,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A17" t="n">
+        <v>20180222</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -1069,10 +1037,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A18" t="n">
+        <v>20180222</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
@@ -1109,10 +1075,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A19" t="n">
+        <v>20180222</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
@@ -1149,10 +1113,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20180301</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1189,10 +1151,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A21" t="n">
+        <v>20180301</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -1229,10 +1189,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20180301</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
@@ -1269,10 +1227,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A23" t="n">
+        <v>20180301</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -1309,10 +1265,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A24" t="n">
+        <v>20180301</v>
       </c>
       <c r="B24" t="n">
         <v>5</v>
@@ -1349,10 +1303,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A25" t="n">
+        <v>20180301</v>
       </c>
       <c r="B25" t="n">
         <v>6</v>
@@ -1389,10 +1341,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A26" t="n">
+        <v>20180308</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1429,10 +1379,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A27" t="n">
+        <v>20180308</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -1469,10 +1417,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A28" t="n">
+        <v>20180308</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
@@ -1509,10 +1455,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A29" t="n">
+        <v>20180308</v>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -1549,10 +1493,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A30" t="n">
+        <v>20180308</v>
       </c>
       <c r="B30" t="n">
         <v>5</v>
@@ -1589,10 +1531,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A31" t="n">
+        <v>20180308</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -1629,10 +1569,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A32" t="n">
+        <v>20180315</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1669,10 +1607,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A33" t="n">
+        <v>20180315</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -1709,10 +1645,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A34" t="n">
+        <v>20180315</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
@@ -1749,10 +1683,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A35" t="n">
+        <v>20180315</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -1789,10 +1721,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A36" t="n">
+        <v>20180315</v>
       </c>
       <c r="B36" t="n">
         <v>5</v>
@@ -1829,10 +1759,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A37" t="n">
+        <v>20180315</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -1869,10 +1797,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A38" t="n">
+        <v>20180322</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1909,10 +1835,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A39" t="n">
+        <v>20180322</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
@@ -1949,10 +1873,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A40" t="n">
+        <v>20180322</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
@@ -1989,10 +1911,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A41" t="n">
+        <v>20180322</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
@@ -2029,10 +1949,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A42" t="n">
+        <v>20180322</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
@@ -2069,10 +1987,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A43" t="n">
+        <v>20180322</v>
       </c>
       <c r="B43" t="n">
         <v>6</v>
@@ -2109,10 +2025,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A44" t="n">
+        <v>20180329</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -2149,10 +2063,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A45" t="n">
+        <v>20180329</v>
       </c>
       <c r="B45" t="n">
         <v>2</v>
@@ -2189,10 +2101,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A46" t="n">
+        <v>20180329</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -2229,10 +2139,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A47" t="n">
+        <v>20180329</v>
       </c>
       <c r="B47" t="n">
         <v>4</v>
@@ -2269,10 +2177,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A48" t="n">
+        <v>20180329</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
@@ -2309,10 +2215,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A49" t="n">
+        <v>20180329</v>
       </c>
       <c r="B49" t="n">
         <v>6</v>
@@ -2349,10 +2253,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A50" t="n">
+        <v>20180405</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -2389,10 +2291,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A51" t="n">
+        <v>20180405</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
@@ -2429,10 +2329,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A52" t="n">
+        <v>20180405</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
@@ -2469,10 +2367,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A53" t="n">
+        <v>20180405</v>
       </c>
       <c r="B53" t="n">
         <v>4</v>
@@ -2509,10 +2405,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A54" t="n">
+        <v>20180405</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
@@ -2549,10 +2443,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A55" t="n">
+        <v>20180405</v>
       </c>
       <c r="B55" t="n">
         <v>6</v>
@@ -2589,10 +2481,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A56" t="n">
+        <v>20180412</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2629,10 +2519,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A57" t="n">
+        <v>20180412</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
@@ -2669,10 +2557,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A58" t="n">
+        <v>20180412</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -2709,10 +2595,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A59" t="n">
+        <v>20180412</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
@@ -2749,10 +2633,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A60" t="n">
+        <v>20180412</v>
       </c>
       <c r="B60" t="n">
         <v>5</v>
@@ -2789,10 +2671,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A61" t="n">
+        <v>20180412</v>
       </c>
       <c r="B61" t="n">
         <v>6</v>
@@ -2829,10 +2709,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A62" t="n">
+        <v>20180418</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2869,10 +2747,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A63" t="n">
+        <v>20180418</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -2909,10 +2785,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A64" t="n">
+        <v>20180418</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
@@ -2949,10 +2823,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A65" t="n">
+        <v>20180418</v>
       </c>
       <c r="B65" t="n">
         <v>4</v>
@@ -2989,10 +2861,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A66" t="n">
+        <v>20180418</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
@@ -3029,10 +2899,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A67" t="n">
+        <v>20180418</v>
       </c>
       <c r="B67" t="n">
         <v>6</v>
@@ -3069,10 +2937,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A68" t="n">
+        <v>20180426</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -3109,10 +2975,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A69" t="n">
+        <v>20180426</v>
       </c>
       <c r="B69" t="n">
         <v>2</v>
@@ -3149,10 +3013,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A70" t="n">
+        <v>20180426</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
@@ -3189,10 +3051,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A71" t="n">
+        <v>20180426</v>
       </c>
       <c r="B71" t="n">
         <v>4</v>
@@ -3229,10 +3089,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A72" t="n">
+        <v>20180426</v>
       </c>
       <c r="B72" t="n">
         <v>5</v>
@@ -3269,10 +3127,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A73" t="n">
+        <v>20180426</v>
       </c>
       <c r="B73" t="n">
         <v>6</v>
@@ -3309,10 +3165,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A74" t="n">
+        <v>20180503</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -3349,10 +3203,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A75" t="n">
+        <v>20180503</v>
       </c>
       <c r="B75" t="n">
         <v>2</v>
@@ -3389,10 +3241,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A76" t="n">
+        <v>20180503</v>
       </c>
       <c r="B76" t="n">
         <v>3</v>
@@ -3429,10 +3279,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A77" t="n">
+        <v>20180503</v>
       </c>
       <c r="B77" t="n">
         <v>4</v>
@@ -3469,10 +3317,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A78" t="n">
+        <v>20180503</v>
       </c>
       <c r="B78" t="n">
         <v>5</v>
@@ -3509,10 +3355,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A79" t="n">
+        <v>20180503</v>
       </c>
       <c r="B79" t="n">
         <v>6</v>
@@ -3549,10 +3393,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A80" t="n">
+        <v>20180510</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -3589,10 +3431,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A81" t="n">
+        <v>20180510</v>
       </c>
       <c r="B81" t="n">
         <v>2</v>
@@ -3629,10 +3469,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A82" t="n">
+        <v>20180510</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
@@ -3669,10 +3507,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A83" t="n">
+        <v>20180510</v>
       </c>
       <c r="B83" t="n">
         <v>4</v>
@@ -3709,10 +3545,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A84" t="n">
+        <v>20180510</v>
       </c>
       <c r="B84" t="n">
         <v>5</v>
@@ -3749,10 +3583,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A85" t="n">
+        <v>20180510</v>
       </c>
       <c r="B85" t="n">
         <v>6</v>
@@ -3789,10 +3621,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A86" t="n">
+        <v>20180517</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -3829,10 +3659,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A87" t="n">
+        <v>20180517</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -3869,10 +3697,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A88" t="n">
+        <v>20180517</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
@@ -3909,10 +3735,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A89" t="n">
+        <v>20180517</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
@@ -3949,10 +3773,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A90" t="n">
+        <v>20180517</v>
       </c>
       <c r="B90" t="n">
         <v>5</v>
@@ -3989,10 +3811,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A91" t="n">
+        <v>20180517</v>
       </c>
       <c r="B91" t="n">
         <v>6</v>
@@ -4029,10 +3849,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A92" t="n">
+        <v>20180524</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -4069,10 +3887,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A93" t="n">
+        <v>20180524</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -4109,10 +3925,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A94" t="n">
+        <v>20180524</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -4149,10 +3963,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A95" t="n">
+        <v>20180524</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -4189,10 +4001,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A96" t="n">
+        <v>20180524</v>
       </c>
       <c r="B96" t="n">
         <v>5</v>
@@ -4229,10 +4039,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A97" t="n">
+        <v>20180524</v>
       </c>
       <c r="B97" t="n">
         <v>6</v>
@@ -4269,10 +4077,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A98" t="n">
+        <v>20180531</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -4309,10 +4115,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A99" t="n">
+        <v>20180531</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
@@ -4349,10 +4153,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A100" t="n">
+        <v>20180531</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
@@ -4389,10 +4191,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A101" t="n">
+        <v>20180531</v>
       </c>
       <c r="B101" t="n">
         <v>4</v>
@@ -4429,10 +4229,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A102" t="n">
+        <v>20180531</v>
       </c>
       <c r="B102" t="n">
         <v>5</v>
@@ -4469,10 +4267,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A103" t="n">
+        <v>20180531</v>
       </c>
       <c r="B103" t="n">
         <v>6</v>
@@ -4509,10 +4305,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A104" t="n">
+        <v>20180607</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -4549,10 +4343,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A105" t="n">
+        <v>20180607</v>
       </c>
       <c r="B105" t="n">
         <v>2</v>
@@ -4589,10 +4381,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A106" t="n">
+        <v>20180607</v>
       </c>
       <c r="B106" t="n">
         <v>3</v>
@@ -4629,10 +4419,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A107" t="n">
+        <v>20180607</v>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -4669,10 +4457,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A108" t="n">
+        <v>20180607</v>
       </c>
       <c r="B108" t="n">
         <v>5</v>
@@ -4709,10 +4495,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A109" t="n">
+        <v>20180607</v>
       </c>
       <c r="B109" t="n">
         <v>6</v>
@@ -4749,10 +4533,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A110" t="n">
+        <v>20180614</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -4789,10 +4571,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A111" t="n">
+        <v>20180614</v>
       </c>
       <c r="B111" t="n">
         <v>2</v>
@@ -4829,10 +4609,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A112" t="n">
+        <v>20180614</v>
       </c>
       <c r="B112" t="n">
         <v>3</v>
@@ -4869,10 +4647,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A113" t="n">
+        <v>20180614</v>
       </c>
       <c r="B113" t="n">
         <v>4</v>
@@ -4909,10 +4685,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A114" t="n">
+        <v>20180614</v>
       </c>
       <c r="B114" t="n">
         <v>5</v>
@@ -4949,10 +4723,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A115" t="n">
+        <v>20180614</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -4989,10 +4761,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A116" t="n">
+        <v>20180621</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -5029,10 +4799,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A117" t="n">
+        <v>20180621</v>
       </c>
       <c r="B117" t="n">
         <v>2</v>
@@ -5069,10 +4837,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A118" t="n">
+        <v>20180621</v>
       </c>
       <c r="B118" t="n">
         <v>3</v>
@@ -5109,10 +4875,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A119" t="n">
+        <v>20180621</v>
       </c>
       <c r="B119" t="n">
         <v>4</v>
@@ -5149,10 +4913,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A120" t="n">
+        <v>20180621</v>
       </c>
       <c r="B120" t="n">
         <v>5</v>
@@ -5189,10 +4951,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A121" t="n">
+        <v>20180621</v>
       </c>
       <c r="B121" t="n">
         <v>6</v>
